--- a/Data/algae_cultivation_log.xlsx
+++ b/Data/algae_cultivation_log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph/Desktop/Tang-Lab/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph/Desktop/Tang-Lab-TAMUCC/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1903D347-482C-274E-AD5C-AFACAE44F89B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD83610-F6FC-6F46-B81F-2118B05D2514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15260" yWindow="900" windowWidth="17920" windowHeight="19500" xr2:uid="{144C66FF-B2D1-EF47-A543-62DBD86A55CA}"/>
+    <workbookView xWindow="4220" yWindow="900" windowWidth="28960" windowHeight="19500" xr2:uid="{144C66FF-B2D1-EF47-A543-62DBD86A55CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Observations</t>
   </si>
@@ -53,46 +53,10 @@
     <t>Technician</t>
   </si>
   <si>
-    <t>Tang</t>
-  </si>
-  <si>
     <t>Container_ID</t>
   </si>
   <si>
-    <t>Water_Replaced_mL</t>
-  </si>
-  <si>
-    <t>Mortality_Count</t>
-  </si>
-  <si>
-    <t>Algae_1_mL</t>
-  </si>
-  <si>
-    <t>Algae_2_mL</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Daphnia_magna</t>
-  </si>
-  <si>
-    <t>C_1</t>
-  </si>
-  <si>
     <t>Water_Temperature</t>
-  </si>
-  <si>
-    <t>Anki</t>
-  </si>
-  <si>
-    <t>Selenastr</t>
-  </si>
-  <si>
-    <t>Algae_1_Supplemented</t>
-  </si>
-  <si>
-    <t>Algae_2_Supplement</t>
   </si>
 </sst>
 </file>
@@ -484,7 +448,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0748AD9F-1DE4-864B-9B2F-CAE4D3C4196A}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
   </sheetViews>
@@ -504,7 +468,7 @@
     <col min="13" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -515,130 +479,81 @@
         <v>4</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>45839</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.47222222222222221</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3">
-        <v>400</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3">
-        <v>20</v>
-      </c>
-      <c r="K2" s="3">
-        <v>20</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
     </row>
